--- a/Assets/Questions/Questions.xlsx
+++ b/Assets/Questions/Questions.xlsx
@@ -32,18 +32,6 @@
     <t>isDare</t>
   </si>
   <si>
-    <t>Kids</t>
-  </si>
-  <si>
-    <t>Teens</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Naughty</t>
-  </si>
-  <si>
     <t>What is your biggest fear in a relationship?</t>
   </si>
   <si>
@@ -1983,6 +1971,18 @@
   </si>
   <si>
     <t xml:space="preserve">How far would you go to land the guy or girl of your dreams? </t>
+  </si>
+  <si>
+    <t>isKids</t>
+  </si>
+  <si>
+    <t>isTeens</t>
+  </si>
+  <si>
+    <t>isAdults</t>
+  </si>
+  <si>
+    <t>isNaughty</t>
   </si>
 </sst>
 </file>
@@ -2051,10 +2051,10 @@
   <tableColumns count="6">
     <tableColumn id="1" name="Statement" dataDxfId="0"/>
     <tableColumn id="2" name="isDare"/>
-    <tableColumn id="4" name="Kids"/>
-    <tableColumn id="5" name="Teens"/>
-    <tableColumn id="6" name="Adults"/>
-    <tableColumn id="8" name="Naughty"/>
+    <tableColumn id="4" name="isKids"/>
+    <tableColumn id="5" name="isTeens"/>
+    <tableColumn id="6" name="isAdults"/>
+    <tableColumn id="8" name="isNaughty"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2359,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" workbookViewId="0">
-      <selection activeCell="F639" sqref="F639"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,21 +2378,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>649</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>650</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>651</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -5092,7 +5092,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -6032,7 +6032,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -6052,7 +6052,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -6732,7 +6732,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -7272,7 +7272,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -7332,7 +7332,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -7372,7 +7372,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -7452,7 +7452,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -7492,7 +7492,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -7572,7 +7572,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -7612,7 +7612,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -7632,7 +7632,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -7692,7 +7692,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -7732,7 +7732,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -7852,7 +7852,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -7912,7 +7912,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -8352,7 +8352,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -8552,7 +8552,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -8812,7 +8812,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -9012,7 +9012,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -9232,7 +9232,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -9472,7 +9472,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -9552,7 +9552,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -9592,7 +9592,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -9612,7 +9612,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -9672,7 +9672,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -9712,7 +9712,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -9792,7 +9792,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -9832,7 +9832,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -9852,7 +9852,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -9932,7 +9932,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -10012,7 +10012,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -10112,7 +10112,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -10212,7 +10212,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -10232,7 +10232,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -10292,7 +10292,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -10312,7 +10312,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -10352,7 +10352,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -10392,7 +10392,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -10412,7 +10412,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -10432,7 +10432,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -10492,7 +10492,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -10512,7 +10512,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -10532,7 +10532,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -10552,7 +10552,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -10592,7 +10592,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -10632,7 +10632,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -10672,7 +10672,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -10692,7 +10692,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -10712,7 +10712,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -10732,7 +10732,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -10772,7 +10772,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -10812,7 +10812,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -10832,7 +10832,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -10852,7 +10852,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -10872,7 +10872,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -10912,7 +10912,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -10932,7 +10932,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -10952,7 +10952,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -10972,7 +10972,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -10992,7 +10992,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -11012,7 +11012,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -11052,7 +11052,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -11112,7 +11112,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -11132,7 +11132,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -11152,7 +11152,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -11192,7 +11192,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -11212,7 +11212,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -11232,7 +11232,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -11252,7 +11252,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -11272,7 +11272,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -11332,7 +11332,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -11352,7 +11352,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -11372,7 +11372,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -11392,7 +11392,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -11412,7 +11412,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -11432,7 +11432,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -11472,7 +11472,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B456">
         <v>0</v>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B457">
         <v>0</v>
@@ -11512,7 +11512,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B458">
         <v>0</v>
@@ -11532,7 +11532,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B459">
         <v>0</v>
@@ -11552,7 +11552,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B460">
         <v>0</v>
@@ -11572,7 +11572,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B461">
         <v>0</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -11612,7 +11612,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B463">
         <v>0</v>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B465">
         <v>0</v>
@@ -11672,7 +11672,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B466">
         <v>0</v>
@@ -11692,7 +11692,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -11712,7 +11712,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -11752,7 +11752,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -11772,7 +11772,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -11792,7 +11792,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B472">
         <v>0</v>
@@ -11812,7 +11812,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B473">
         <v>0</v>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -11872,7 +11872,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -11912,7 +11912,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -11932,7 +11932,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B479">
         <v>0</v>
@@ -11952,7 +11952,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B480">
         <v>0</v>
@@ -11972,7 +11972,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B481">
         <v>0</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B482">
         <v>0</v>
@@ -12012,7 +12012,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B483">
         <v>0</v>
@@ -12032,7 +12032,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B484">
         <v>0</v>
@@ -12052,7 +12052,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B485">
         <v>0</v>
@@ -12072,7 +12072,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B486">
         <v>0</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B487">
         <v>0</v>
@@ -12112,7 +12112,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B488">
         <v>0</v>
@@ -12132,7 +12132,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B489">
         <v>0</v>
@@ -12152,7 +12152,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B490">
         <v>0</v>
@@ -12172,7 +12172,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B491">
         <v>0</v>
@@ -12192,7 +12192,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -12212,7 +12212,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B494">
         <v>0</v>
@@ -12252,7 +12252,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -12272,7 +12272,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B497">
         <v>0</v>
@@ -12312,7 +12312,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B498">
         <v>0</v>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B499">
         <v>0</v>
@@ -12352,7 +12352,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -12372,7 +12372,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B501">
         <v>0</v>
@@ -12392,7 +12392,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B502">
         <v>0</v>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B503">
         <v>0</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B504">
         <v>0</v>
@@ -12452,7 +12452,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B505">
         <v>0</v>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -12492,7 +12492,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -12512,7 +12512,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B508">
         <v>1</v>
@@ -12532,7 +12532,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -12552,7 +12552,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -12572,7 +12572,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -12612,7 +12612,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -12632,7 +12632,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -12652,7 +12652,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -12672,7 +12672,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -12692,7 +12692,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -12732,7 +12732,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -12752,7 +12752,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -12832,7 +12832,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -12852,7 +12852,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B525">
         <v>1</v>
@@ -12872,7 +12872,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -12912,7 +12912,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -12932,7 +12932,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -12952,7 +12952,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -12972,7 +12972,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -13012,7 +13012,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -13052,7 +13052,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -13072,7 +13072,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -13092,7 +13092,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -13112,7 +13112,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -13132,7 +13132,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -13152,7 +13152,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -13172,7 +13172,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -13192,7 +13192,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -13212,7 +13212,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -13232,7 +13232,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -13292,7 +13292,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B547">
         <v>1</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -13332,7 +13332,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -13352,7 +13352,7 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -13372,7 +13372,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -13392,7 +13392,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -13432,7 +13432,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -13452,7 +13452,7 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -13472,7 +13472,7 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -13512,7 +13512,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -13552,7 +13552,7 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -13572,7 +13572,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -13592,7 +13592,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -13612,7 +13612,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B563">
         <v>0</v>
@@ -13632,7 +13632,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B564">
         <v>0</v>
@@ -13652,7 +13652,7 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B565">
         <v>0</v>
@@ -13672,7 +13672,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B566">
         <v>0</v>
@@ -13692,7 +13692,7 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B567">
         <v>0</v>
@@ -13712,7 +13712,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B568">
         <v>0</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B569">
         <v>0</v>
@@ -13752,7 +13752,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B570">
         <v>0</v>
@@ -13772,7 +13772,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B571">
         <v>0</v>
@@ -13792,7 +13792,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B572">
         <v>0</v>
@@ -13812,7 +13812,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B573">
         <v>0</v>
@@ -13832,7 +13832,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B574">
         <v>0</v>
@@ -13852,7 +13852,7 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B575">
         <v>0</v>
@@ -13872,7 +13872,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B576">
         <v>0</v>
@@ -13892,7 +13892,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B577">
         <v>0</v>
@@ -13912,7 +13912,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B578">
         <v>0</v>
@@ -13932,7 +13932,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B579">
         <v>0</v>
@@ -13952,7 +13952,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B580">
         <v>0</v>
@@ -13972,7 +13972,7 @@
     </row>
     <row r="581" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B581">
         <v>0</v>
@@ -13992,7 +13992,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B582">
         <v>0</v>
@@ -14012,7 +14012,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B583">
         <v>0</v>
@@ -14032,7 +14032,7 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B584">
         <v>0</v>
@@ -14052,7 +14052,7 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -14072,7 +14072,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B586">
         <v>0</v>
@@ -14092,7 +14092,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B587">
         <v>0</v>
@@ -14112,7 +14112,7 @@
     </row>
     <row r="588" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -14132,7 +14132,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B589">
         <v>0</v>
@@ -14152,7 +14152,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B590">
         <v>0</v>
@@ -14172,7 +14172,7 @@
     </row>
     <row r="591" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B591">
         <v>0</v>
@@ -14192,7 +14192,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B592">
         <v>0</v>
@@ -14212,7 +14212,7 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B593">
         <v>0</v>
@@ -14232,7 +14232,7 @@
     </row>
     <row r="594" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B595">
         <v>1</v>
@@ -14272,7 +14272,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -14292,7 +14292,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -14312,7 +14312,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B598">
         <v>1</v>
@@ -14332,7 +14332,7 @@
     </row>
     <row r="599" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -14352,7 +14352,7 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -14372,7 +14372,7 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B601">
         <v>1</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -14412,7 +14412,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B603">
         <v>1</v>
@@ -14432,7 +14432,7 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B604">
         <v>0</v>
@@ -14452,7 +14452,7 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B605">
         <v>0</v>
@@ -14472,7 +14472,7 @@
     </row>
     <row r="606" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B606">
         <v>0</v>
@@ -14492,7 +14492,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B607">
         <v>0</v>
@@ -14509,7 +14509,7 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B608">
         <v>0</v>
@@ -14529,7 +14529,7 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B609">
         <v>0</v>
@@ -14549,7 +14549,7 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B610">
         <v>0</v>
@@ -14569,7 +14569,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B611">
         <v>0</v>
@@ -14589,7 +14589,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B612">
         <v>0</v>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B613">
         <v>0</v>
@@ -14629,7 +14629,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B614">
         <v>0</v>
@@ -14649,7 +14649,7 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B615">
         <v>0</v>
@@ -14669,7 +14669,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B616">
         <v>0</v>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B617">
         <v>0</v>
@@ -14709,7 +14709,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B618">
         <v>0</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B619">
         <v>0</v>
@@ -14749,7 +14749,7 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B620">
         <v>0</v>
@@ -14769,7 +14769,7 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B621">
         <v>0</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B622">
         <v>0</v>
@@ -14809,7 +14809,7 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B623">
         <v>0</v>
@@ -14829,7 +14829,7 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B624">
         <v>0</v>
@@ -14849,7 +14849,7 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B625">
         <v>0</v>
@@ -14869,7 +14869,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B626">
         <v>0</v>
@@ -14889,7 +14889,7 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B627">
         <v>0</v>
@@ -14909,7 +14909,7 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B628">
         <v>0</v>
@@ -14929,7 +14929,7 @@
     </row>
     <row r="629" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B629">
         <v>0</v>
@@ -14949,7 +14949,7 @@
     </row>
     <row r="630" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B630">
         <v>0</v>
@@ -14969,7 +14969,7 @@
     </row>
     <row r="631" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B631">
         <v>0</v>
@@ -14989,7 +14989,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B632">
         <v>0</v>
@@ -15009,7 +15009,7 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B633">
         <v>0</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B634">
         <v>0</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B635">
         <v>0</v>
@@ -15069,7 +15069,7 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B636">
         <v>0</v>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B637">
         <v>0</v>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B638">
         <v>0</v>
@@ -15129,7 +15129,7 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B639">
         <v>0</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B640">
         <v>0</v>
@@ -15166,7 +15166,7 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B641">
         <v>0</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B642">
         <v>0</v>
@@ -15206,7 +15206,7 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B643">
         <v>0</v>
@@ -15226,7 +15226,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B644">
         <v>0</v>
@@ -15243,7 +15243,7 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B645">
         <v>0</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B646">
         <v>0</v>
@@ -15283,7 +15283,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B647">
         <v>0</v>
@@ -15303,7 +15303,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B648">
         <v>0</v>
@@ -15323,7 +15323,7 @@
     </row>
     <row r="649" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B649">
         <v>0</v>
@@ -15343,7 +15343,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B650">
         <v>0</v>
@@ -15363,7 +15363,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B651">
         <v>0</v>
@@ -15383,7 +15383,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B652">
         <v>0</v>
@@ -15403,7 +15403,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B653">
         <v>0</v>

--- a/Assets/Questions/Questions.xlsx
+++ b/Assets/Questions/Questions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="654">
   <si>
     <t>Statement</t>
   </si>
@@ -1983,13 +1983,16 @@
   </si>
   <si>
     <t>isNaughty</t>
+  </si>
+  <si>
+    <t>What have you done that people here would judge you most for doing?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1997,13 +2000,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2015,17 +2030,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2046,8 +2066,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F653" totalsRowShown="0">
-  <autoFilter ref="A1:F653"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F675" totalsRowShown="0">
+  <autoFilter ref="A1:F675"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Statement" dataDxfId="0"/>
     <tableColumn id="2" name="isDare"/>
@@ -2357,10 +2377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F653"/>
+  <dimension ref="A1:F675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G669" sqref="G669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14450,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>600</v>
       </c>
@@ -14470,7 +14491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>601</v>
       </c>
@@ -15418,6 +15439,446 @@
         <v>1</v>
       </c>
       <c r="F653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B654" s="5">
+        <v>0</v>
+      </c>
+      <c r="C654" s="5">
+        <v>1</v>
+      </c>
+      <c r="D654" s="5">
+        <v>1</v>
+      </c>
+      <c r="E654" s="5">
+        <v>1</v>
+      </c>
+      <c r="F654" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B655" s="3">
+        <v>0</v>
+      </c>
+      <c r="C655" s="3">
+        <v>1</v>
+      </c>
+      <c r="D655" s="3">
+        <v>1</v>
+      </c>
+      <c r="E655" s="3">
+        <v>1</v>
+      </c>
+      <c r="F655" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B656" s="3">
+        <v>0</v>
+      </c>
+      <c r="C656" s="3">
+        <v>1</v>
+      </c>
+      <c r="D656" s="3">
+        <v>1</v>
+      </c>
+      <c r="E656" s="3">
+        <v>1</v>
+      </c>
+      <c r="F656" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B657" s="3">
+        <v>0</v>
+      </c>
+      <c r="C657" s="3">
+        <v>0</v>
+      </c>
+      <c r="D657" s="3">
+        <v>1</v>
+      </c>
+      <c r="E657" s="3">
+        <v>1</v>
+      </c>
+      <c r="F657" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B658" s="3">
+        <v>0</v>
+      </c>
+      <c r="C658" s="3">
+        <v>1</v>
+      </c>
+      <c r="D658" s="3">
+        <v>1</v>
+      </c>
+      <c r="E658" s="3">
+        <v>1</v>
+      </c>
+      <c r="F658" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B659" s="3">
+        <v>0</v>
+      </c>
+      <c r="C659" s="3">
+        <v>1</v>
+      </c>
+      <c r="D659" s="3">
+        <v>1</v>
+      </c>
+      <c r="E659" s="3">
+        <v>1</v>
+      </c>
+      <c r="F659" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B660" s="3">
+        <v>0</v>
+      </c>
+      <c r="C660" s="3">
+        <v>1</v>
+      </c>
+      <c r="D660" s="3">
+        <v>1</v>
+      </c>
+      <c r="E660" s="3">
+        <v>1</v>
+      </c>
+      <c r="F660" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B661" s="3">
+        <v>0</v>
+      </c>
+      <c r="C661" s="3">
+        <v>1</v>
+      </c>
+      <c r="D661" s="3">
+        <v>1</v>
+      </c>
+      <c r="E661" s="3">
+        <v>1</v>
+      </c>
+      <c r="F661" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B662" s="3">
+        <v>0</v>
+      </c>
+      <c r="C662" s="3">
+        <v>1</v>
+      </c>
+      <c r="D662" s="3">
+        <v>1</v>
+      </c>
+      <c r="E662" s="3">
+        <v>1</v>
+      </c>
+      <c r="F662" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B663" s="3">
+        <v>0</v>
+      </c>
+      <c r="C663" s="3">
+        <v>1</v>
+      </c>
+      <c r="D663" s="3">
+        <v>1</v>
+      </c>
+      <c r="E663" s="3">
+        <v>1</v>
+      </c>
+      <c r="F663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B664" s="3">
+        <v>0</v>
+      </c>
+      <c r="C664" s="3">
+        <v>0</v>
+      </c>
+      <c r="D664" s="3">
+        <v>1</v>
+      </c>
+      <c r="E664" s="3">
+        <v>1</v>
+      </c>
+      <c r="F664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B665" s="3">
+        <v>0</v>
+      </c>
+      <c r="C665" s="3">
+        <v>1</v>
+      </c>
+      <c r="D665" s="3">
+        <v>1</v>
+      </c>
+      <c r="E665" s="3">
+        <v>1</v>
+      </c>
+      <c r="F665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B666" s="3">
+        <v>0</v>
+      </c>
+      <c r="C666" s="3">
+        <v>1</v>
+      </c>
+      <c r="D666" s="3">
+        <v>1</v>
+      </c>
+      <c r="E666" s="3">
+        <v>1</v>
+      </c>
+      <c r="F666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B667" s="3">
+        <v>0</v>
+      </c>
+      <c r="C667" s="3">
+        <v>1</v>
+      </c>
+      <c r="D667" s="3">
+        <v>1</v>
+      </c>
+      <c r="E667" s="3">
+        <v>1</v>
+      </c>
+      <c r="F667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B668">
+        <v>1</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+      <c r="E668">
+        <v>1</v>
+      </c>
+      <c r="F668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B669">
+        <v>1</v>
+      </c>
+      <c r="C669">
+        <v>1</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+      <c r="E669">
+        <v>1</v>
+      </c>
+      <c r="F669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B670">
+        <v>1</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+      <c r="D670">
+        <v>1</v>
+      </c>
+      <c r="E670">
+        <v>1</v>
+      </c>
+      <c r="F670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B671">
+        <v>1</v>
+      </c>
+      <c r="C671">
+        <v>1</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
+      </c>
+      <c r="E671">
+        <v>1</v>
+      </c>
+      <c r="F671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B672">
+        <v>1</v>
+      </c>
+      <c r="C672">
+        <v>1</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+      <c r="E672">
+        <v>1</v>
+      </c>
+      <c r="F672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B673">
+        <v>1</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
+      </c>
+      <c r="E673">
+        <v>1</v>
+      </c>
+      <c r="F673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B674">
+        <v>1</v>
+      </c>
+      <c r="C674">
+        <v>1</v>
+      </c>
+      <c r="D674">
+        <v>1</v>
+      </c>
+      <c r="E674">
+        <v>1</v>
+      </c>
+      <c r="F674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B675">
+        <v>1</v>
+      </c>
+      <c r="C675">
+        <v>1</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675">
+        <v>1</v>
+      </c>
+      <c r="F675">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Questions/Questions.xlsx
+++ b/Assets/Questions/Questions.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Truth or Dare\Assets\Questions\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="668">
   <si>
     <t>Statement</t>
   </si>
@@ -1986,13 +1986,55 @@
   </si>
   <si>
     <t>What have you done that people here would judge you most for doing?</t>
+  </si>
+  <si>
+    <t>If you could erase one past experience, what would it be?</t>
+  </si>
+  <si>
+    <t>Of the people in this room, who do you disagree with most frequently?</t>
+  </si>
+  <si>
+    <t>What three adjectives best describe your vagina/penis?</t>
+  </si>
+  <si>
+    <t>Who loves you the most, mother or father?</t>
+  </si>
+  <si>
+    <t>Which person do you think is you biggest enemy?</t>
+  </si>
+  <si>
+    <t>Which is your favorite Disney movie?</t>
+  </si>
+  <si>
+    <t>Hold an ice cube in your hands until it melts</t>
+  </si>
+  <si>
+    <t>Empty your purse or backack in the circle and tell why you carry each item</t>
+  </si>
+  <si>
+    <t>Let the group wrap you in toilet paper</t>
+  </si>
+  <si>
+    <t>Call one of your siblings and tell them one thing you admire about them</t>
+  </si>
+  <si>
+    <t>Wrap your knees together with plastic food wrap until the end of the game</t>
+  </si>
+  <si>
+    <t>Talk with a foreign accent until the end of the game</t>
+  </si>
+  <si>
+    <t>Someone puts 3 food items in a blender and you have to drink some</t>
+  </si>
+  <si>
+    <t>Do your best impression of the person you have a crush on</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2003,6 +2045,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2034,22 +2083,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2066,15 +2146,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F675" totalsRowShown="0">
-  <autoFilter ref="A1:F675"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F706">
+  <autoFilter ref="A1:F706">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="Statement" dataDxfId="0"/>
+    <tableColumn id="1" name="Statement" totalsRowLabel="Total" dataDxfId="0" totalsRowDxfId="1"/>
     <tableColumn id="2" name="isDare"/>
     <tableColumn id="4" name="isKids"/>
     <tableColumn id="5" name="isTeens"/>
     <tableColumn id="6" name="isAdults"/>
-    <tableColumn id="8" name="isNaughty"/>
+    <tableColumn id="8" name="isNaughty" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2377,22 +2464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F675"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F706"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G669" sqref="G669"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F697" sqref="F697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="79.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2412,7 +2500,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -2432,7 +2520,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -2452,7 +2540,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -2472,7 +2560,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -2492,7 +2580,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -2512,7 +2600,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -2532,7 +2620,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -2552,7 +2640,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9">
@@ -2572,7 +2660,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -2592,7 +2680,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11">
@@ -2612,7 +2700,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12">
@@ -2632,7 +2720,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -2652,7 +2740,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14">
@@ -2672,7 +2760,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -2692,7 +2780,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16">
@@ -2712,7 +2800,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -2732,7 +2820,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -2752,7 +2840,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19">
@@ -2772,7 +2860,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20">
@@ -2792,7 +2880,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21">
@@ -2812,7 +2900,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22">
@@ -2832,7 +2920,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B23">
@@ -2852,7 +2940,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B24">
@@ -2872,7 +2960,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B25">
@@ -2892,7 +2980,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B26">
@@ -2912,7 +3000,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B27">
@@ -2932,7 +3020,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B28">
@@ -2952,7 +3040,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B29">
@@ -2972,7 +3060,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30">
@@ -2992,7 +3080,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B31">
@@ -3012,7 +3100,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B32">
@@ -3032,7 +3120,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B33">
@@ -3052,7 +3140,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B34">
@@ -3072,7 +3160,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B35">
@@ -3092,7 +3180,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B36">
@@ -3112,7 +3200,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B37">
@@ -3132,7 +3220,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B38">
@@ -3152,7 +3240,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B39">
@@ -3172,7 +3260,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B40">
@@ -3192,7 +3280,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B41">
@@ -3212,7 +3300,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B42">
@@ -3232,7 +3320,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B43">
@@ -3252,7 +3340,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B44">
@@ -3272,7 +3360,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B45">
@@ -3292,7 +3380,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B46">
@@ -3312,7 +3400,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B47">
@@ -3332,7 +3420,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B48">
@@ -3352,7 +3440,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B49">
@@ -3372,7 +3460,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B50">
@@ -3392,7 +3480,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B51">
@@ -3412,7 +3500,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B52">
@@ -3432,7 +3520,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B53">
@@ -3452,7 +3540,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B54">
@@ -3472,7 +3560,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B55">
@@ -3492,7 +3580,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B56">
@@ -3512,7 +3600,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B57">
@@ -3532,7 +3620,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B58">
@@ -3552,7 +3640,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B59">
@@ -3572,7 +3660,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B60">
@@ -3592,7 +3680,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B61">
@@ -3612,7 +3700,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B62">
@@ -3632,7 +3720,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B63">
@@ -3652,7 +3740,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B64">
@@ -3672,7 +3760,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B65">
@@ -3692,7 +3780,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B66">
@@ -3712,7 +3800,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B67">
@@ -3732,7 +3820,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B68">
@@ -3752,7 +3840,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B69">
@@ -3772,7 +3860,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B70">
@@ -3792,7 +3880,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B71">
@@ -3812,7 +3900,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B72">
@@ -3832,7 +3920,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B73">
@@ -3852,7 +3940,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B74">
@@ -3872,7 +3960,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B75">
@@ -3892,7 +3980,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B76">
@@ -3912,7 +4000,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B77">
@@ -3932,7 +4020,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B78">
@@ -3952,7 +4040,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B79">
@@ -3972,7 +4060,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B80">
@@ -3992,7 +4080,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B81">
@@ -4012,7 +4100,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B82">
@@ -4032,7 +4120,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B83">
@@ -4052,7 +4140,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B84">
@@ -4072,7 +4160,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B85">
@@ -4092,7 +4180,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B86">
@@ -4112,7 +4200,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B87">
@@ -4132,7 +4220,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B88">
@@ -4152,7 +4240,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B89">
@@ -4172,7 +4260,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B90">
@@ -4192,7 +4280,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B91">
@@ -4212,7 +4300,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B92">
@@ -4232,7 +4320,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B93">
@@ -4252,7 +4340,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B94">
@@ -4272,7 +4360,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B95">
@@ -4292,7 +4380,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B96">
@@ -4312,7 +4400,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B97">
@@ -4332,7 +4420,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B98">
@@ -4352,7 +4440,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B99">
@@ -4372,7 +4460,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B100">
@@ -4392,7 +4480,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B101">
@@ -4412,7 +4500,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B102">
@@ -4432,7 +4520,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B103">
@@ -4452,7 +4540,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B104">
@@ -4472,7 +4560,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B105">
@@ -4492,7 +4580,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B106">
@@ -4512,7 +4600,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B107">
@@ -4532,7 +4620,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B108">
@@ -4552,7 +4640,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B109">
@@ -4572,7 +4660,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B110">
@@ -4592,7 +4680,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B111">
@@ -4612,7 +4700,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B112">
@@ -4632,7 +4720,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B113">
@@ -4652,7 +4740,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B114">
@@ -4672,7 +4760,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B115">
@@ -4692,7 +4780,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B116">
@@ -4712,7 +4800,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B117">
@@ -4732,7 +4820,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B118">
@@ -4752,7 +4840,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B119">
@@ -4772,7 +4860,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B120">
@@ -4792,7 +4880,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B121">
@@ -4812,7 +4900,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B122">
@@ -4832,7 +4920,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -4852,7 +4940,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -4872,7 +4960,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B125">
@@ -4892,7 +4980,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B126">
@@ -4912,7 +5000,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B127">
@@ -4932,7 +5020,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B128">
@@ -4952,7 +5040,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B129">
@@ -4972,7 +5060,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B130">
@@ -4992,7 +5080,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B131">
@@ -5012,7 +5100,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B132">
@@ -5032,7 +5120,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B133">
@@ -5052,7 +5140,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B134">
@@ -5072,7 +5160,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B135">
@@ -5092,7 +5180,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B136">
@@ -5112,7 +5200,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B137">
@@ -5132,7 +5220,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B138">
@@ -5152,7 +5240,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B139">
@@ -5172,7 +5260,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B140">
@@ -5192,7 +5280,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B141">
@@ -5212,7 +5300,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B142">
@@ -5232,7 +5320,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B143">
@@ -5252,7 +5340,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B144">
@@ -5272,7 +5360,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B145">
@@ -5292,7 +5380,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B146">
@@ -5312,7 +5400,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B147">
@@ -5332,7 +5420,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B148">
@@ -5352,7 +5440,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B149">
@@ -5372,7 +5460,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B150">
@@ -5392,7 +5480,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B151">
@@ -5412,7 +5500,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B152">
@@ -5432,7 +5520,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B153">
@@ -5452,7 +5540,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B154">
@@ -5472,7 +5560,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B155">
@@ -5492,7 +5580,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B156">
@@ -5512,7 +5600,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B157">
@@ -5532,7 +5620,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B158">
@@ -5552,7 +5640,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B159">
@@ -5572,7 +5660,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -5592,7 +5680,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -5612,7 +5700,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -5632,7 +5720,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -5652,7 +5740,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -5672,7 +5760,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B165">
@@ -5692,7 +5780,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B166">
@@ -5712,7 +5800,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B167">
@@ -5732,7 +5820,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B168">
@@ -5752,7 +5840,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B169">
@@ -5772,7 +5860,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B170">
@@ -5792,7 +5880,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B171">
@@ -5812,7 +5900,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B172">
@@ -5832,7 +5920,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B173">
@@ -5852,7 +5940,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B174">
@@ -5872,7 +5960,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B175">
@@ -5892,7 +5980,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B176">
@@ -5912,7 +6000,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B177">
@@ -5932,7 +6020,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B178">
@@ -5952,7 +6040,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B179">
@@ -5972,7 +6060,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B180">
@@ -5992,7 +6080,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B181">
@@ -6012,7 +6100,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -6032,7 +6120,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -6052,7 +6140,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -6072,7 +6160,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -6092,7 +6180,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -6112,7 +6200,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -6132,7 +6220,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -6152,7 +6240,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -6172,7 +6260,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -6192,7 +6280,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -6212,7 +6300,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -6232,7 +6320,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -6252,7 +6340,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B194">
@@ -6272,7 +6360,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B195">
@@ -6292,7 +6380,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B196">
@@ -6312,7 +6400,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B197">
@@ -6332,7 +6420,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B198">
@@ -6352,7 +6440,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B199">
@@ -6372,7 +6460,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B200">
@@ -6392,7 +6480,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B201">
@@ -6412,7 +6500,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B202">
@@ -6432,7 +6520,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B203">
@@ -6452,7 +6540,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B204">
@@ -6472,7 +6560,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B205">
@@ -6492,7 +6580,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B206">
@@ -6512,7 +6600,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B207">
@@ -6532,7 +6620,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B208">
@@ -6552,7 +6640,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B209">
@@ -6572,7 +6660,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B210">
@@ -6592,7 +6680,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B211">
@@ -6612,7 +6700,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B212">
@@ -6632,7 +6720,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B213">
@@ -6652,7 +6740,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B214">
@@ -6672,7 +6760,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B215">
@@ -6692,7 +6780,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B216">
@@ -6712,7 +6800,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B217">
@@ -6732,7 +6820,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B218">
@@ -6752,7 +6840,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B219">
@@ -6772,7 +6860,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B220">
@@ -6792,7 +6880,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B221">
@@ -6812,7 +6900,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B222">
@@ -6832,7 +6920,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B223">
@@ -6852,7 +6940,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B224">
@@ -6872,7 +6960,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B225">
@@ -6892,7 +6980,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B226">
@@ -6912,7 +7000,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B227">
@@ -6932,7 +7020,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B228">
@@ -6952,7 +7040,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B229">
@@ -6972,7 +7060,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B230">
@@ -6992,7 +7080,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B231">
@@ -7012,7 +7100,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B232">
@@ -7032,7 +7120,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B233">
@@ -7052,7 +7140,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B234">
@@ -7072,7 +7160,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B235">
@@ -7092,7 +7180,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B236">
@@ -7112,7 +7200,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B237">
@@ -7132,7 +7220,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B238">
@@ -7152,7 +7240,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B239">
@@ -7172,7 +7260,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B240">
@@ -7192,7 +7280,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B241">
@@ -7212,7 +7300,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B242">
@@ -7232,7 +7320,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B243">
@@ -7252,7 +7340,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B244">
@@ -7272,7 +7360,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B245">
@@ -7292,7 +7380,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B246">
@@ -7312,7 +7400,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B247">
@@ -7332,7 +7420,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B248">
@@ -7352,7 +7440,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B249">
@@ -7372,7 +7460,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B250">
@@ -7392,7 +7480,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B251">
@@ -7412,7 +7500,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B252">
@@ -7432,7 +7520,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B253">
@@ -7452,7 +7540,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
+      <c r="A254" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B254">
@@ -7472,7 +7560,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B255">
@@ -7492,7 +7580,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B256">
@@ -7512,7 +7600,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B257">
@@ -7532,7 +7620,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B258">
@@ -7552,7 +7640,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B259">
@@ -7572,7 +7660,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B260">
@@ -7592,7 +7680,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B261">
@@ -7612,7 +7700,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B262">
@@ -7632,7 +7720,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B263">
@@ -7652,7 +7740,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B264">
@@ -7672,7 +7760,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B265">
@@ -7692,7 +7780,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B266">
@@ -7712,7 +7800,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B267">
@@ -7732,7 +7820,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B268">
@@ -7752,7 +7840,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B269">
@@ -7772,7 +7860,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B270">
@@ -7792,7 +7880,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B271">
@@ -7812,7 +7900,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B272">
@@ -7832,7 +7920,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
+      <c r="A273" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B273">
@@ -7852,7 +7940,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B274">
@@ -7872,7 +7960,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B275">
@@ -7892,7 +7980,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B276">
@@ -7912,7 +8000,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B277">
@@ -7932,7 +8020,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B278">
@@ -7952,7 +8040,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B279">
@@ -7972,7 +8060,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B280">
@@ -7992,7 +8080,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
+      <c r="A281" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B281">
@@ -8012,7 +8100,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B282">
@@ -8032,7 +8120,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B283">
@@ -8052,7 +8140,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
+      <c r="A284" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B284">
@@ -8072,7 +8160,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B285">
@@ -8092,7 +8180,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
+      <c r="A286" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B286">
@@ -8112,7 +8200,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B287">
@@ -8132,7 +8220,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B288">
@@ -8152,7 +8240,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B289">
@@ -8172,7 +8260,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B290">
@@ -8192,7 +8280,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B291">
@@ -8212,7 +8300,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B292">
@@ -8232,7 +8320,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B293">
@@ -8252,7 +8340,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B294">
@@ -8272,7 +8360,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
+      <c r="A295" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B295">
@@ -8292,7 +8380,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B296">
@@ -8312,7 +8400,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B297">
@@ -8332,7 +8420,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B298">
@@ -8352,7 +8440,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B299">
@@ -8372,7 +8460,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B300">
@@ -8392,7 +8480,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B301">
@@ -8412,7 +8500,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B302">
@@ -8432,7 +8520,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B303">
@@ -8452,7 +8540,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
+      <c r="A304" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B304">
@@ -8472,7 +8560,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
+      <c r="A305" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B305">
@@ -8492,7 +8580,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B306">
@@ -8512,7 +8600,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B307">
@@ -8532,7 +8620,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B308">
@@ -8552,7 +8640,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B309">
@@ -8572,7 +8660,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B310">
@@ -8592,7 +8680,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B311">
@@ -8612,7 +8700,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
+      <c r="A312" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B312">
@@ -8632,7 +8720,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B313">
@@ -8652,7 +8740,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B314">
@@ -8672,7 +8760,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
+      <c r="A315" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B315">
@@ -8692,7 +8780,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
+      <c r="A316" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B316">
@@ -8712,7 +8800,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B317">
@@ -8732,7 +8820,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
+      <c r="A318" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B318">
@@ -8752,7 +8840,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B319">
@@ -8772,7 +8860,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B320">
@@ -8792,7 +8880,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B321">
@@ -8812,7 +8900,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B322">
@@ -8832,7 +8920,7 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B323">
@@ -8852,7 +8940,7 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B324">
@@ -8872,7 +8960,7 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B325">
@@ -8892,7 +8980,7 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B326">
@@ -8912,7 +9000,7 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B327">
@@ -8932,7 +9020,7 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B328">
@@ -8952,7 +9040,7 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B329">
@@ -8972,7 +9060,7 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B330">
@@ -8992,7 +9080,7 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B331">
@@ -9012,7 +9100,7 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B332">
@@ -9032,7 +9120,7 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B333">
@@ -9052,7 +9140,7 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
+      <c r="A334" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B334">
@@ -9072,7 +9160,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
+      <c r="A335" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B335">
@@ -9092,7 +9180,7 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B336">
@@ -9112,7 +9200,7 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B337">
@@ -9132,7 +9220,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
+      <c r="A338" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B338">
@@ -9152,7 +9240,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B339">
@@ -9172,7 +9260,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B340">
@@ -9192,7 +9280,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B341">
@@ -9212,7 +9300,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B342">
@@ -9232,7 +9320,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B343">
@@ -9252,7 +9340,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B344">
@@ -9272,7 +9360,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B345">
@@ -9292,7 +9380,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B346">
@@ -9312,7 +9400,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
+      <c r="A347" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B347">
@@ -9332,7 +9420,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B348">
@@ -9352,7 +9440,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B349">
@@ -9372,7 +9460,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
+      <c r="A350" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B350">
@@ -9392,7 +9480,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B351">
@@ -9412,7 +9500,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
+      <c r="A352" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B352">
@@ -9432,7 +9520,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B353">
@@ -9452,7 +9540,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B354">
@@ -9472,7 +9560,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B355">
@@ -9492,7 +9580,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B356">
@@ -9512,7 +9600,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B357">
@@ -9532,7 +9620,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
+      <c r="A358" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B358">
@@ -9552,7 +9640,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B359">
@@ -9572,7 +9660,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B360">
@@ -9592,7 +9680,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B361">
@@ -9612,7 +9700,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="3" t="s">
         <v>360</v>
       </c>
       <c r="B362">
@@ -9632,7 +9720,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B363">
@@ -9652,7 +9740,7 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B364">
@@ -9672,7 +9760,7 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B365">
@@ -9692,7 +9780,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
+      <c r="A366" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B366">
@@ -9712,7 +9800,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B367">
@@ -9732,7 +9820,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="3" t="s">
         <v>366</v>
       </c>
       <c r="B368">
@@ -9752,7 +9840,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B369">
@@ -9772,7 +9860,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="3" t="s">
         <v>368</v>
       </c>
       <c r="B370">
@@ -9792,7 +9880,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B371">
@@ -9812,7 +9900,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
+      <c r="A372" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B372">
@@ -9832,7 +9920,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B373">
@@ -9852,7 +9940,7 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
+      <c r="A374" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B374">
@@ -9872,7 +9960,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
+      <c r="A375" s="3" t="s">
         <v>372</v>
       </c>
       <c r="B375">
@@ -9892,7 +9980,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B376">
@@ -9912,7 +10000,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+      <c r="A377" s="3" t="s">
         <v>374</v>
       </c>
       <c r="B377">
@@ -9932,7 +10020,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B378">
@@ -9952,7 +10040,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B379">
@@ -9972,7 +10060,7 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B380">
@@ -9992,7 +10080,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+      <c r="A381" s="3" t="s">
         <v>378</v>
       </c>
       <c r="B381">
@@ -10012,7 +10100,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+      <c r="A382" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B382">
@@ -10032,7 +10120,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="3" t="s">
         <v>380</v>
       </c>
       <c r="B383">
@@ -10052,7 +10140,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
+      <c r="A384" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B384">
@@ -10072,7 +10160,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B385">
@@ -10092,7 +10180,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B386">
@@ -10112,7 +10200,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B387">
@@ -10132,7 +10220,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B388">
@@ -10152,7 +10240,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B389">
@@ -10172,7 +10260,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
+      <c r="A390" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B390">
@@ -10192,7 +10280,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B391">
@@ -10212,7 +10300,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
+      <c r="A392" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B392">
@@ -10232,7 +10320,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
+      <c r="A393" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B393">
@@ -10252,7 +10340,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B394">
@@ -10272,7 +10360,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B395">
@@ -10292,7 +10380,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
+      <c r="A396" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B396">
@@ -10312,7 +10400,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B397">
@@ -10332,7 +10420,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
+      <c r="A398" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B398">
@@ -10352,7 +10440,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
+      <c r="A399" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B399">
@@ -10372,7 +10460,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
+      <c r="A400" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B400">
@@ -10392,7 +10480,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
+      <c r="A401" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B401">
@@ -10412,7 +10500,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
+      <c r="A402" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B402">
@@ -10432,7 +10520,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B403">
@@ -10452,7 +10540,7 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B404">
@@ -10472,7 +10560,7 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B405">
@@ -10492,7 +10580,7 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
+      <c r="A406" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B406">
@@ -10512,7 +10600,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
+      <c r="A407" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B407">
@@ -10532,7 +10620,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
+      <c r="A408" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B408">
@@ -10552,7 +10640,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
+      <c r="A409" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B409">
@@ -10572,7 +10660,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+      <c r="A410" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B410">
@@ -10592,7 +10680,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
+      <c r="A411" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B411">
@@ -10612,7 +10700,7 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
+      <c r="A412" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B412">
@@ -10632,7 +10720,7 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
+      <c r="A413" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B413">
@@ -10652,7 +10740,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
+      <c r="A414" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B414">
@@ -10672,7 +10760,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B415">
@@ -10692,7 +10780,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B416">
@@ -10712,7 +10800,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="2" t="s">
+      <c r="A417" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B417">
@@ -10732,7 +10820,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B418">
@@ -10752,7 +10840,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B419">
@@ -10772,7 +10860,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="2" t="s">
+      <c r="A420" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B420">
@@ -10792,7 +10880,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="2" t="s">
+      <c r="A421" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B421">
@@ -10812,7 +10900,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
+      <c r="A422" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B422">
@@ -10832,7 +10920,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B423">
@@ -10852,7 +10940,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B424">
@@ -10872,7 +10960,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B425">
@@ -10892,7 +10980,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
+      <c r="A426" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B426">
@@ -10912,7 +11000,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
+      <c r="A427" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B427">
@@ -10932,7 +11020,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
+      <c r="A428" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B428">
@@ -10952,7 +11040,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="2" t="s">
+      <c r="A429" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B429">
@@ -10972,7 +11060,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
+      <c r="A430" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B430">
@@ -10992,7 +11080,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
+      <c r="A431" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B431">
@@ -11012,7 +11100,7 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
+      <c r="A432" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B432">
@@ -11032,7 +11120,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="2" t="s">
+      <c r="A433" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B433">
@@ -11052,7 +11140,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
+      <c r="A434" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B434">
@@ -11072,7 +11160,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B435">
@@ -11092,7 +11180,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
+      <c r="A436" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B436">
@@ -11112,7 +11200,7 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="2" t="s">
+      <c r="A437" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B437">
@@ -11132,7 +11220,7 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="2" t="s">
+      <c r="A438" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B438">
@@ -11152,7 +11240,7 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="2" t="s">
+      <c r="A439" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B439">
@@ -11172,7 +11260,7 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="2" t="s">
+      <c r="A440" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B440">
@@ -11192,7 +11280,7 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="2" t="s">
+      <c r="A441" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B441">
@@ -11212,7 +11300,7 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="2" t="s">
+      <c r="A442" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B442">
@@ -11232,7 +11320,7 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B443">
@@ -11252,7 +11340,7 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="2" t="s">
+      <c r="A444" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B444">
@@ -11272,7 +11360,7 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B445">
@@ -11292,7 +11380,7 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
+      <c r="A446" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B446">
@@ -11312,7 +11400,7 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
+      <c r="A447" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B447">
@@ -11332,7 +11420,7 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B448">
@@ -11352,7 +11440,7 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
+      <c r="A449" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B449">
@@ -11372,7 +11460,7 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
+      <c r="A450" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B450">
@@ -11392,7 +11480,7 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B451">
@@ -11412,7 +11500,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
+      <c r="A452" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B452">
@@ -11432,7 +11520,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
+      <c r="A453" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B453">
@@ -11452,7 +11540,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="2" t="s">
+      <c r="A454" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B454">
@@ -11472,7 +11560,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
+      <c r="A455" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B455">
@@ -11492,7 +11580,7 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B456">
@@ -11512,7 +11600,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
+      <c r="A457" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B457">
@@ -11532,7 +11620,7 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
+      <c r="A458" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B458">
@@ -11552,7 +11640,7 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="2" t="s">
+      <c r="A459" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B459">
@@ -11572,7 +11660,7 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B460">
@@ -11592,7 +11680,7 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
+      <c r="A461" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B461">
@@ -11612,7 +11700,7 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
+      <c r="A462" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B462">
@@ -11632,7 +11720,7 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
+      <c r="A463" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B463">
@@ -11652,7 +11740,7 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
+      <c r="A464" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B464">
@@ -11672,7 +11760,7 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
+      <c r="A465" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B465">
@@ -11692,7 +11780,7 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
+      <c r="A466" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B466">
@@ -11712,7 +11800,7 @@
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B467">
@@ -11732,7 +11820,7 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
+      <c r="A468" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B468">
@@ -11752,7 +11840,7 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
+      <c r="A469" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B469">
@@ -11772,7 +11860,7 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B470">
@@ -11792,7 +11880,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B471">
@@ -11812,7 +11900,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B472">
@@ -11832,7 +11920,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="2" t="s">
+      <c r="A473" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B473">
@@ -11852,7 +11940,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="2" t="s">
+      <c r="A474" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B474">
@@ -11872,7 +11960,7 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B475">
@@ -11892,7 +11980,7 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
+      <c r="A476" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B476">
@@ -11912,7 +12000,7 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
+      <c r="A477" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B477">
@@ -11932,7 +12020,7 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
+      <c r="A478" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B478">
@@ -11952,7 +12040,7 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
+      <c r="A479" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B479">
@@ -11972,7 +12060,7 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
+      <c r="A480" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B480">
@@ -11992,7 +12080,7 @@
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
+      <c r="A481" s="3" t="s">
         <v>479</v>
       </c>
       <c r="B481">
@@ -12012,7 +12100,7 @@
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B482">
@@ -12032,7 +12120,7 @@
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
+      <c r="A483" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B483">
@@ -12052,7 +12140,7 @@
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="2" t="s">
+      <c r="A484" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B484">
@@ -12072,7 +12160,7 @@
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
+      <c r="A485" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B485">
@@ -12092,7 +12180,7 @@
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
+      <c r="A486" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B486">
@@ -12112,7 +12200,7 @@
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="2" t="s">
+      <c r="A487" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B487">
@@ -12132,7 +12220,7 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="2" t="s">
+      <c r="A488" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B488">
@@ -12152,7 +12240,7 @@
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="2" t="s">
+      <c r="A489" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B489">
@@ -12172,7 +12260,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="2" t="s">
+      <c r="A490" s="3" t="s">
         <v>488</v>
       </c>
       <c r="B490">
@@ -12192,7 +12280,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="2" t="s">
+      <c r="A491" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B491">
@@ -12212,7 +12300,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="2" t="s">
+      <c r="A492" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B492">
@@ -12232,7 +12320,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="2" t="s">
+      <c r="A493" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B493">
@@ -12252,7 +12340,7 @@
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="2" t="s">
+      <c r="A494" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B494">
@@ -12272,7 +12360,7 @@
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="2" t="s">
+      <c r="A495" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B495">
@@ -12292,7 +12380,7 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="2" t="s">
+      <c r="A496" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B496">
@@ -12312,7 +12400,7 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="2" t="s">
+      <c r="A497" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B497">
@@ -12332,7 +12420,7 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="2" t="s">
+      <c r="A498" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B498">
@@ -12352,7 +12440,7 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="2" t="s">
+      <c r="A499" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B499">
@@ -12372,7 +12460,7 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="2" t="s">
+      <c r="A500" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B500">
@@ -12392,7 +12480,7 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="2" t="s">
+      <c r="A501" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B501">
@@ -12412,7 +12500,7 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="2" t="s">
+      <c r="A502" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B502">
@@ -12432,7 +12520,7 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="2" t="s">
+      <c r="A503" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B503">
@@ -12452,7 +12540,7 @@
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="2" t="s">
+      <c r="A504" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B504">
@@ -12472,7 +12560,7 @@
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="2" t="s">
+      <c r="A505" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B505">
@@ -12492,7 +12580,7 @@
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
+      <c r="A506" s="3" t="s">
         <v>504</v>
       </c>
       <c r="B506">
@@ -12512,7 +12600,7 @@
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="2" t="s">
+      <c r="A507" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B507">
@@ -12532,7 +12620,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508" s="2" t="s">
+      <c r="A508" s="3" t="s">
         <v>506</v>
       </c>
       <c r="B508">
@@ -12552,7 +12640,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A509" s="2" t="s">
+      <c r="A509" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B509">
@@ -12572,7 +12660,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A510" s="2" t="s">
+      <c r="A510" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B510">
@@ -12592,7 +12680,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511" s="2" t="s">
+      <c r="A511" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B511">
@@ -12612,7 +12700,7 @@
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A512" s="2" t="s">
+      <c r="A512" s="3" t="s">
         <v>510</v>
       </c>
       <c r="B512">
@@ -12632,7 +12720,7 @@
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A513" s="2" t="s">
+      <c r="A513" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B513">
@@ -12652,7 +12740,7 @@
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A514" s="2" t="s">
+      <c r="A514" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B514">
@@ -12672,7 +12760,7 @@
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A515" s="2" t="s">
+      <c r="A515" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B515">
@@ -12692,7 +12780,7 @@
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A516" s="2" t="s">
+      <c r="A516" s="3" t="s">
         <v>514</v>
       </c>
       <c r="B516">
@@ -12712,7 +12800,7 @@
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A517" s="2" t="s">
+      <c r="A517" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B517">
@@ -12732,7 +12820,7 @@
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
+      <c r="A518" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B518">
@@ -12752,7 +12840,7 @@
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A519" s="2" t="s">
+      <c r="A519" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B519">
@@ -12772,7 +12860,7 @@
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A520" s="2" t="s">
+      <c r="A520" s="3" t="s">
         <v>518</v>
       </c>
       <c r="B520">
@@ -12792,7 +12880,7 @@
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
+      <c r="A521" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B521">
@@ -12812,7 +12900,7 @@
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A522" s="2" t="s">
+      <c r="A522" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B522">
@@ -12832,7 +12920,7 @@
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A523" s="2" t="s">
+      <c r="A523" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B523">
@@ -12852,7 +12940,7 @@
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="2" t="s">
+      <c r="A524" s="3" t="s">
         <v>522</v>
       </c>
       <c r="B524">
@@ -12872,7 +12960,7 @@
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" s="2" t="s">
+      <c r="A525" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B525">
@@ -12892,7 +12980,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A526" s="2" t="s">
+      <c r="A526" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B526">
@@ -12912,7 +13000,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A527" s="2" t="s">
+      <c r="A527" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B527">
@@ -12932,7 +13020,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A528" s="2" t="s">
+      <c r="A528" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B528">
@@ -12952,7 +13040,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529" s="2" t="s">
+      <c r="A529" s="3" t="s">
         <v>527</v>
       </c>
       <c r="B529">
@@ -12972,7 +13060,7 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A530" s="2" t="s">
+      <c r="A530" s="3" t="s">
         <v>528</v>
       </c>
       <c r="B530">
@@ -12992,7 +13080,7 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531" s="2" t="s">
+      <c r="A531" s="3" t="s">
         <v>529</v>
       </c>
       <c r="B531">
@@ -13012,7 +13100,7 @@
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A532" s="2" t="s">
+      <c r="A532" s="3" t="s">
         <v>530</v>
       </c>
       <c r="B532">
@@ -13032,7 +13120,7 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
+      <c r="A533" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B533">
@@ -13052,7 +13140,7 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
+      <c r="A534" s="3" t="s">
         <v>532</v>
       </c>
       <c r="B534">
@@ -13072,7 +13160,7 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535" s="2" t="s">
+      <c r="A535" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B535">
@@ -13092,7 +13180,7 @@
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
+      <c r="A536" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B536">
@@ -13112,7 +13200,7 @@
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
+      <c r="A537" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B537">
@@ -13132,7 +13220,7 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A538" s="2" t="s">
+      <c r="A538" s="3" t="s">
         <v>536</v>
       </c>
       <c r="B538">
@@ -13152,7 +13240,7 @@
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A539" s="2" t="s">
+      <c r="A539" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B539">
@@ -13172,7 +13260,7 @@
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A540" s="2" t="s">
+      <c r="A540" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B540">
@@ -13192,7 +13280,7 @@
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A541" s="2" t="s">
+      <c r="A541" s="3" t="s">
         <v>539</v>
       </c>
       <c r="B541">
@@ -13212,7 +13300,7 @@
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A542" s="2" t="s">
+      <c r="A542" s="3" t="s">
         <v>540</v>
       </c>
       <c r="B542">
@@ -13232,7 +13320,7 @@
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543" s="2" t="s">
+      <c r="A543" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B543">
@@ -13252,7 +13340,7 @@
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A544" s="2" t="s">
+      <c r="A544" s="3" t="s">
         <v>542</v>
       </c>
       <c r="B544">
@@ -13272,7 +13360,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
+      <c r="A545" s="3" t="s">
         <v>543</v>
       </c>
       <c r="B545">
@@ -13292,7 +13380,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A546" s="2" t="s">
+      <c r="A546" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B546">
@@ -13312,7 +13400,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
+      <c r="A547" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B547">
@@ -13332,7 +13420,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A548" s="2" t="s">
+      <c r="A548" s="3" t="s">
         <v>546</v>
       </c>
       <c r="B548">
@@ -13352,7 +13440,7 @@
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549" s="2" t="s">
+      <c r="A549" s="3" t="s">
         <v>560</v>
       </c>
       <c r="B549">
@@ -13372,7 +13460,7 @@
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A550" s="2" t="s">
+      <c r="A550" s="3" t="s">
         <v>547</v>
       </c>
       <c r="B550">
@@ -13392,7 +13480,7 @@
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551" s="2" t="s">
+      <c r="A551" s="3" t="s">
         <v>548</v>
       </c>
       <c r="B551">
@@ -13412,7 +13500,7 @@
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
+      <c r="A552" s="3" t="s">
         <v>549</v>
       </c>
       <c r="B552">
@@ -13432,7 +13520,7 @@
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553" s="2" t="s">
+      <c r="A553" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B553">
@@ -13452,7 +13540,7 @@
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
+      <c r="A554" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B554">
@@ -13472,7 +13560,7 @@
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A555" s="2" t="s">
+      <c r="A555" s="3" t="s">
         <v>552</v>
       </c>
       <c r="B555">
@@ -13492,7 +13580,7 @@
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
+      <c r="A556" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B556">
@@ -13512,7 +13600,7 @@
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
+      <c r="A557" s="3" t="s">
         <v>554</v>
       </c>
       <c r="B557">
@@ -13532,7 +13620,7 @@
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
+      <c r="A558" s="3" t="s">
         <v>555</v>
       </c>
       <c r="B558">
@@ -13552,7 +13640,7 @@
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
+      <c r="A559" s="3" t="s">
         <v>556</v>
       </c>
       <c r="B559">
@@ -13572,7 +13660,7 @@
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
+      <c r="A560" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B560">
@@ -13592,7 +13680,7 @@
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A561" s="2" t="s">
+      <c r="A561" s="3" t="s">
         <v>558</v>
       </c>
       <c r="B561">
@@ -13612,7 +13700,7 @@
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A562" s="2" t="s">
+      <c r="A562" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B562">
@@ -13632,7 +13720,7 @@
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A563" s="2" t="s">
+      <c r="A563" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B563">
@@ -13652,7 +13740,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A564" s="2" t="s">
+      <c r="A564" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B564">
@@ -13672,7 +13760,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A565" s="2" t="s">
+      <c r="A565" s="3" t="s">
         <v>570</v>
       </c>
       <c r="B565">
@@ -13692,7 +13780,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A566" s="2" t="s">
+      <c r="A566" s="3" t="s">
         <v>571</v>
       </c>
       <c r="B566">
@@ -13712,7 +13800,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A567" s="2" t="s">
+      <c r="A567" s="3" t="s">
         <v>572</v>
       </c>
       <c r="B567">
@@ -13732,7 +13820,7 @@
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A568" s="2" t="s">
+      <c r="A568" s="3" t="s">
         <v>562</v>
       </c>
       <c r="B568">
@@ -13752,7 +13840,7 @@
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A569" s="2" t="s">
+      <c r="A569" s="3" t="s">
         <v>573</v>
       </c>
       <c r="B569">
@@ -13772,7 +13860,7 @@
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A570" s="2" t="s">
+      <c r="A570" s="3" t="s">
         <v>574</v>
       </c>
       <c r="B570">
@@ -13792,7 +13880,7 @@
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A571" s="2" t="s">
+      <c r="A571" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B571">
@@ -13812,7 +13900,7 @@
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A572" s="2" t="s">
+      <c r="A572" s="3" t="s">
         <v>564</v>
       </c>
       <c r="B572">
@@ -13832,7 +13920,7 @@
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A573" s="2" t="s">
+      <c r="A573" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B573">
@@ -13852,7 +13940,7 @@
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A574" s="2" t="s">
+      <c r="A574" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B574">
@@ -13872,7 +13960,7 @@
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A575" s="2" t="s">
+      <c r="A575" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B575">
@@ -13892,7 +13980,7 @@
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A576" s="2" t="s">
+      <c r="A576" s="3" t="s">
         <v>566</v>
       </c>
       <c r="B576">
@@ -13912,7 +14000,7 @@
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A577" s="2" t="s">
+      <c r="A577" s="3" t="s">
         <v>575</v>
       </c>
       <c r="B577">
@@ -13932,7 +14020,7 @@
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A578" s="2" t="s">
+      <c r="A578" s="3" t="s">
         <v>567</v>
       </c>
       <c r="B578">
@@ -13952,7 +14040,7 @@
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A579" s="2" t="s">
+      <c r="A579" s="3" t="s">
         <v>568</v>
       </c>
       <c r="B579">
@@ -13972,7 +14060,7 @@
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A580" s="2" t="s">
+      <c r="A580" s="3" t="s">
         <v>569</v>
       </c>
       <c r="B580">
@@ -13992,7 +14080,7 @@
       </c>
     </row>
     <row r="581" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="4" t="s">
         <v>576</v>
       </c>
       <c r="B581">
@@ -14012,7 +14100,7 @@
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="4" t="s">
         <v>577</v>
       </c>
       <c r="B582">
@@ -14032,7 +14120,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
+      <c r="A583" s="4" t="s">
         <v>578</v>
       </c>
       <c r="B583">
@@ -14052,7 +14140,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
+      <c r="A584" s="4" t="s">
         <v>579</v>
       </c>
       <c r="B584">
@@ -14072,7 +14160,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="4" t="s">
         <v>580</v>
       </c>
       <c r="B585">
@@ -14092,7 +14180,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
+      <c r="A586" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B586">
@@ -14112,7 +14200,7 @@
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
+      <c r="A587" s="4" t="s">
         <v>582</v>
       </c>
       <c r="B587">
@@ -14132,7 +14220,7 @@
       </c>
     </row>
     <row r="588" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="4" t="s">
         <v>592</v>
       </c>
       <c r="B588">
@@ -14152,7 +14240,7 @@
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="4" t="s">
         <v>583</v>
       </c>
       <c r="B589">
@@ -14172,7 +14260,7 @@
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="4" t="s">
         <v>584</v>
       </c>
       <c r="B590">
@@ -14192,7 +14280,7 @@
       </c>
     </row>
     <row r="591" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
+      <c r="A591" s="4" t="s">
         <v>593</v>
       </c>
       <c r="B591">
@@ -14212,7 +14300,7 @@
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
+      <c r="A592" s="4" t="s">
         <v>585</v>
       </c>
       <c r="B592">
@@ -14232,7 +14320,7 @@
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
+      <c r="A593" s="4" t="s">
         <v>586</v>
       </c>
       <c r="B593">
@@ -14252,7 +14340,7 @@
       </c>
     </row>
     <row r="594" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
+      <c r="A594" s="4" t="s">
         <v>594</v>
       </c>
       <c r="B594">
@@ -14272,7 +14360,7 @@
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="4" t="s">
         <v>587</v>
       </c>
       <c r="B595">
@@ -14292,7 +14380,7 @@
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
+      <c r="A596" s="4" t="s">
         <v>588</v>
       </c>
       <c r="B596">
@@ -14312,7 +14400,7 @@
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
+      <c r="A597" s="4" t="s">
         <v>595</v>
       </c>
       <c r="B597">
@@ -14332,7 +14420,7 @@
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
+      <c r="A598" s="4" t="s">
         <v>596</v>
       </c>
       <c r="B598">
@@ -14352,7 +14440,7 @@
       </c>
     </row>
     <row r="599" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
+      <c r="A599" s="4" t="s">
         <v>597</v>
       </c>
       <c r="B599">
@@ -14372,7 +14460,7 @@
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
+      <c r="A600" s="4" t="s">
         <v>589</v>
       </c>
       <c r="B600">
@@ -14392,7 +14480,7 @@
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="4" t="s">
         <v>598</v>
       </c>
       <c r="B601">
@@ -14412,7 +14500,7 @@
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
+      <c r="A602" s="4" t="s">
         <v>590</v>
       </c>
       <c r="B602">
@@ -14432,7 +14520,7 @@
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
+      <c r="A603" s="4" t="s">
         <v>591</v>
       </c>
       <c r="B603">
@@ -14452,7 +14540,7 @@
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
+      <c r="A604" s="4" t="s">
         <v>599</v>
       </c>
       <c r="B604">
@@ -14472,7 +14560,7 @@
       </c>
     </row>
     <row r="605" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+      <c r="A605" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B605">
@@ -14492,7 +14580,7 @@
       </c>
     </row>
     <row r="606" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+      <c r="A606" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B606">
@@ -14512,7 +14600,7 @@
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
+      <c r="A607" s="4" t="s">
         <v>602</v>
       </c>
       <c r="B607">
@@ -14529,7 +14617,7 @@
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
+      <c r="A608" s="4" t="s">
         <v>603</v>
       </c>
       <c r="B608">
@@ -14549,7 +14637,7 @@
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
+      <c r="A609" s="4" t="s">
         <v>604</v>
       </c>
       <c r="B609">
@@ -14569,7 +14657,7 @@
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
+      <c r="A610" s="4" t="s">
         <v>605</v>
       </c>
       <c r="B610">
@@ -14589,7 +14677,7 @@
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
+      <c r="A611" s="4" t="s">
         <v>606</v>
       </c>
       <c r="B611">
@@ -14609,7 +14697,7 @@
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
+      <c r="A612" s="4" t="s">
         <v>607</v>
       </c>
       <c r="B612">
@@ -14629,7 +14717,7 @@
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
+      <c r="A613" s="4" t="s">
         <v>608</v>
       </c>
       <c r="B613">
@@ -14649,7 +14737,7 @@
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
+      <c r="A614" s="4" t="s">
         <v>609</v>
       </c>
       <c r="B614">
@@ -14669,7 +14757,7 @@
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
+      <c r="A615" s="4" t="s">
         <v>610</v>
       </c>
       <c r="B615">
@@ -14689,7 +14777,7 @@
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
+      <c r="A616" s="4" t="s">
         <v>611</v>
       </c>
       <c r="B616">
@@ -14709,7 +14797,7 @@
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
+      <c r="A617" s="4" t="s">
         <v>612</v>
       </c>
       <c r="B617">
@@ -14729,7 +14817,7 @@
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
+      <c r="A618" s="4" t="s">
         <v>613</v>
       </c>
       <c r="B618">
@@ -14749,7 +14837,7 @@
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
+      <c r="A619" s="4" t="s">
         <v>614</v>
       </c>
       <c r="B619">
@@ -14769,7 +14857,7 @@
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
+      <c r="A620" s="4" t="s">
         <v>615</v>
       </c>
       <c r="B620">
@@ -14789,7 +14877,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
+      <c r="A621" s="4" t="s">
         <v>616</v>
       </c>
       <c r="B621">
@@ -14809,7 +14897,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
+      <c r="A622" s="4" t="s">
         <v>617</v>
       </c>
       <c r="B622">
@@ -14829,7 +14917,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
+      <c r="A623" s="4" t="s">
         <v>618</v>
       </c>
       <c r="B623">
@@ -14849,7 +14937,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
+      <c r="A624" s="4" t="s">
         <v>619</v>
       </c>
       <c r="B624">
@@ -14869,7 +14957,7 @@
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
+      <c r="A625" s="4" t="s">
         <v>620</v>
       </c>
       <c r="B625">
@@ -14889,7 +14977,7 @@
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
+      <c r="A626" s="4" t="s">
         <v>621</v>
       </c>
       <c r="B626">
@@ -14909,7 +14997,7 @@
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
+      <c r="A627" s="4" t="s">
         <v>622</v>
       </c>
       <c r="B627">
@@ -14929,7 +15017,7 @@
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
+      <c r="A628" s="4" t="s">
         <v>623</v>
       </c>
       <c r="B628">
@@ -14949,7 +15037,7 @@
       </c>
     </row>
     <row r="629" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
+      <c r="A629" s="4" t="s">
         <v>624</v>
       </c>
       <c r="B629">
@@ -14969,7 +15057,7 @@
       </c>
     </row>
     <row r="630" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
+      <c r="A630" s="4" t="s">
         <v>625</v>
       </c>
       <c r="B630">
@@ -14989,7 +15077,7 @@
       </c>
     </row>
     <row r="631" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
+      <c r="A631" s="4" t="s">
         <v>626</v>
       </c>
       <c r="B631">
@@ -15009,7 +15097,7 @@
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
+      <c r="A632" s="4" t="s">
         <v>627</v>
       </c>
       <c r="B632">
@@ -15029,7 +15117,7 @@
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
+      <c r="A633" s="4" t="s">
         <v>628</v>
       </c>
       <c r="B633">
@@ -15049,7 +15137,7 @@
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
+      <c r="A634" s="4" t="s">
         <v>629</v>
       </c>
       <c r="B634">
@@ -15069,7 +15157,7 @@
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
+      <c r="A635" s="4" t="s">
         <v>630</v>
       </c>
       <c r="B635">
@@ -15089,7 +15177,7 @@
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
+      <c r="A636" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B636">
@@ -15109,7 +15197,7 @@
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A637" s="1" t="s">
+      <c r="A637" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B637">
@@ -15129,7 +15217,7 @@
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
+      <c r="A638" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B638">
@@ -15149,7 +15237,7 @@
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
+      <c r="A639" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B639">
@@ -15169,7 +15257,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A640" s="1" t="s">
+      <c r="A640" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B640">
@@ -15186,7 +15274,7 @@
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A641" s="1" t="s">
+      <c r="A641" s="4" t="s">
         <v>636</v>
       </c>
       <c r="B641">
@@ -15206,7 +15294,7 @@
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A642" s="1" t="s">
+      <c r="A642" s="4" t="s">
         <v>637</v>
       </c>
       <c r="B642">
@@ -15226,7 +15314,7 @@
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A643" s="1" t="s">
+      <c r="A643" s="4" t="s">
         <v>638</v>
       </c>
       <c r="B643">
@@ -15246,7 +15334,7 @@
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A644" s="1" t="s">
+      <c r="A644" s="4" t="s">
         <v>639</v>
       </c>
       <c r="B644">
@@ -15263,7 +15351,7 @@
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A645" s="1" t="s">
+      <c r="A645" s="4" t="s">
         <v>640</v>
       </c>
       <c r="B645">
@@ -15283,7 +15371,7 @@
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A646" s="1" t="s">
+      <c r="A646" s="4" t="s">
         <v>641</v>
       </c>
       <c r="B646">
@@ -15303,7 +15391,7 @@
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
+      <c r="A647" s="4" t="s">
         <v>642</v>
       </c>
       <c r="B647">
@@ -15323,7 +15411,7 @@
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
+      <c r="A648" s="4" t="s">
         <v>643</v>
       </c>
       <c r="B648">
@@ -15343,7 +15431,7 @@
       </c>
     </row>
     <row r="649" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A649" s="1" t="s">
+      <c r="A649" s="4" t="s">
         <v>644</v>
       </c>
       <c r="B649">
@@ -15363,7 +15451,7 @@
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A650" s="1" t="s">
+      <c r="A650" s="4" t="s">
         <v>645</v>
       </c>
       <c r="B650">
@@ -15383,7 +15471,7 @@
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A651" s="1" t="s">
+      <c r="A651" s="4" t="s">
         <v>646</v>
       </c>
       <c r="B651">
@@ -15403,7 +15491,7 @@
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A652" s="1" t="s">
+      <c r="A652" s="4" t="s">
         <v>647</v>
       </c>
       <c r="B652">
@@ -15423,7 +15511,7 @@
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A653" s="1" t="s">
+      <c r="A653" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B653">
@@ -15442,200 +15530,200 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="4" t="s">
+    <row r="654" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B654" s="5">
-        <v>0</v>
-      </c>
-      <c r="C654" s="5">
-        <v>1</v>
-      </c>
-      <c r="D654" s="5">
-        <v>1</v>
-      </c>
-      <c r="E654" s="5">
-        <v>1</v>
-      </c>
-      <c r="F654" s="5">
+      <c r="B654" s="2">
+        <v>0</v>
+      </c>
+      <c r="C654" s="2">
+        <v>1</v>
+      </c>
+      <c r="D654" s="2">
+        <v>1</v>
+      </c>
+      <c r="E654" s="2">
+        <v>1</v>
+      </c>
+      <c r="F654" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A655" s="2" t="s">
+      <c r="A655" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B655" s="3">
-        <v>0</v>
-      </c>
-      <c r="C655" s="3">
-        <v>1</v>
-      </c>
-      <c r="D655" s="3">
-        <v>1</v>
-      </c>
-      <c r="E655" s="3">
-        <v>1</v>
-      </c>
-      <c r="F655" s="3">
+      <c r="B655" s="1">
+        <v>0</v>
+      </c>
+      <c r="C655" s="1">
+        <v>1</v>
+      </c>
+      <c r="D655" s="1">
+        <v>1</v>
+      </c>
+      <c r="E655" s="1">
+        <v>1</v>
+      </c>
+      <c r="F655" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A656" s="2" t="s">
+      <c r="A656" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B656" s="3">
-        <v>0</v>
-      </c>
-      <c r="C656" s="3">
-        <v>1</v>
-      </c>
-      <c r="D656" s="3">
-        <v>1</v>
-      </c>
-      <c r="E656" s="3">
-        <v>1</v>
-      </c>
-      <c r="F656" s="3">
+      <c r="B656" s="1">
+        <v>0</v>
+      </c>
+      <c r="C656" s="1">
+        <v>1</v>
+      </c>
+      <c r="D656" s="1">
+        <v>1</v>
+      </c>
+      <c r="E656" s="1">
+        <v>1</v>
+      </c>
+      <c r="F656" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A657" s="2" t="s">
+      <c r="A657" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B657" s="3">
-        <v>0</v>
-      </c>
-      <c r="C657" s="3">
-        <v>0</v>
-      </c>
-      <c r="D657" s="3">
-        <v>1</v>
-      </c>
-      <c r="E657" s="3">
-        <v>1</v>
-      </c>
-      <c r="F657" s="3">
+      <c r="B657" s="1">
+        <v>0</v>
+      </c>
+      <c r="C657" s="1">
+        <v>0</v>
+      </c>
+      <c r="D657" s="1">
+        <v>1</v>
+      </c>
+      <c r="E657" s="1">
+        <v>1</v>
+      </c>
+      <c r="F657" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A658" s="2" t="s">
+      <c r="A658" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B658" s="3">
-        <v>0</v>
-      </c>
-      <c r="C658" s="3">
-        <v>1</v>
-      </c>
-      <c r="D658" s="3">
-        <v>1</v>
-      </c>
-      <c r="E658" s="3">
-        <v>1</v>
-      </c>
-      <c r="F658" s="3">
+      <c r="B658" s="1">
+        <v>0</v>
+      </c>
+      <c r="C658" s="1">
+        <v>1</v>
+      </c>
+      <c r="D658" s="1">
+        <v>1</v>
+      </c>
+      <c r="E658" s="1">
+        <v>1</v>
+      </c>
+      <c r="F658" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A659" s="2" t="s">
+      <c r="A659" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B659" s="3">
-        <v>0</v>
-      </c>
-      <c r="C659" s="3">
-        <v>1</v>
-      </c>
-      <c r="D659" s="3">
-        <v>1</v>
-      </c>
-      <c r="E659" s="3">
-        <v>1</v>
-      </c>
-      <c r="F659" s="3">
+      <c r="B659" s="1">
+        <v>0</v>
+      </c>
+      <c r="C659" s="1">
+        <v>1</v>
+      </c>
+      <c r="D659" s="1">
+        <v>1</v>
+      </c>
+      <c r="E659" s="1">
+        <v>1</v>
+      </c>
+      <c r="F659" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A660" s="2" t="s">
+      <c r="A660" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B660" s="3">
-        <v>0</v>
-      </c>
-      <c r="C660" s="3">
-        <v>1</v>
-      </c>
-      <c r="D660" s="3">
-        <v>1</v>
-      </c>
-      <c r="E660" s="3">
-        <v>1</v>
-      </c>
-      <c r="F660" s="3">
+      <c r="B660" s="1">
+        <v>0</v>
+      </c>
+      <c r="C660" s="1">
+        <v>1</v>
+      </c>
+      <c r="D660" s="1">
+        <v>1</v>
+      </c>
+      <c r="E660" s="1">
+        <v>1</v>
+      </c>
+      <c r="F660" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A661" s="2" t="s">
+      <c r="A661" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B661" s="3">
-        <v>0</v>
-      </c>
-      <c r="C661" s="3">
-        <v>1</v>
-      </c>
-      <c r="D661" s="3">
-        <v>1</v>
-      </c>
-      <c r="E661" s="3">
-        <v>1</v>
-      </c>
-      <c r="F661" s="3">
+      <c r="B661" s="1">
+        <v>0</v>
+      </c>
+      <c r="C661" s="1">
+        <v>1</v>
+      </c>
+      <c r="D661" s="1">
+        <v>1</v>
+      </c>
+      <c r="E661" s="1">
+        <v>1</v>
+      </c>
+      <c r="F661" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A662" s="2" t="s">
+      <c r="A662" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B662" s="3">
-        <v>0</v>
-      </c>
-      <c r="C662" s="3">
-        <v>1</v>
-      </c>
-      <c r="D662" s="3">
-        <v>1</v>
-      </c>
-      <c r="E662" s="3">
-        <v>1</v>
-      </c>
-      <c r="F662" s="3">
+      <c r="B662" s="1">
+        <v>0</v>
+      </c>
+      <c r="C662" s="1">
+        <v>1</v>
+      </c>
+      <c r="D662" s="1">
+        <v>1</v>
+      </c>
+      <c r="E662" s="1">
+        <v>1</v>
+      </c>
+      <c r="F662" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A663" s="2" t="s">
+      <c r="A663" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B663" s="3">
-        <v>0</v>
-      </c>
-      <c r="C663" s="3">
-        <v>1</v>
-      </c>
-      <c r="D663" s="3">
-        <v>1</v>
-      </c>
-      <c r="E663" s="3">
+      <c r="B663" s="1">
+        <v>0</v>
+      </c>
+      <c r="C663" s="1">
+        <v>1</v>
+      </c>
+      <c r="D663" s="1">
+        <v>1</v>
+      </c>
+      <c r="E663" s="1">
         <v>1</v>
       </c>
       <c r="F663">
@@ -15643,19 +15731,19 @@
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A664" s="2" t="s">
+      <c r="A664" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B664" s="3">
-        <v>0</v>
-      </c>
-      <c r="C664" s="3">
-        <v>0</v>
-      </c>
-      <c r="D664" s="3">
-        <v>1</v>
-      </c>
-      <c r="E664" s="3">
+      <c r="B664" s="1">
+        <v>0</v>
+      </c>
+      <c r="C664" s="1">
+        <v>0</v>
+      </c>
+      <c r="D664" s="1">
+        <v>1</v>
+      </c>
+      <c r="E664" s="1">
         <v>1</v>
       </c>
       <c r="F664">
@@ -15663,19 +15751,19 @@
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A665" s="2" t="s">
+      <c r="A665" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B665" s="3">
-        <v>0</v>
-      </c>
-      <c r="C665" s="3">
-        <v>1</v>
-      </c>
-      <c r="D665" s="3">
-        <v>1</v>
-      </c>
-      <c r="E665" s="3">
+      <c r="B665" s="1">
+        <v>0</v>
+      </c>
+      <c r="C665" s="1">
+        <v>1</v>
+      </c>
+      <c r="D665" s="1">
+        <v>1</v>
+      </c>
+      <c r="E665" s="1">
         <v>1</v>
       </c>
       <c r="F665">
@@ -15683,19 +15771,19 @@
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A666" s="2" t="s">
+      <c r="A666" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B666" s="3">
-        <v>0</v>
-      </c>
-      <c r="C666" s="3">
-        <v>1</v>
-      </c>
-      <c r="D666" s="3">
-        <v>1</v>
-      </c>
-      <c r="E666" s="3">
+      <c r="B666" s="1">
+        <v>0</v>
+      </c>
+      <c r="C666" s="1">
+        <v>1</v>
+      </c>
+      <c r="D666" s="1">
+        <v>1</v>
+      </c>
+      <c r="E666" s="1">
         <v>1</v>
       </c>
       <c r="F666">
@@ -15703,19 +15791,19 @@
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A667" s="2" t="s">
+      <c r="A667" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="B667" s="3">
-        <v>0</v>
-      </c>
-      <c r="C667" s="3">
-        <v>1</v>
-      </c>
-      <c r="D667" s="3">
-        <v>1</v>
-      </c>
-      <c r="E667" s="3">
+      <c r="B667" s="1">
+        <v>0</v>
+      </c>
+      <c r="C667" s="1">
+        <v>1</v>
+      </c>
+      <c r="D667" s="1">
+        <v>1</v>
+      </c>
+      <c r="E667" s="1">
         <v>1</v>
       </c>
       <c r="F667">
@@ -15723,7 +15811,7 @@
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A668" s="2" t="s">
+      <c r="A668" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B668">
@@ -15743,7 +15831,7 @@
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A669" s="2" t="s">
+      <c r="A669" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B669">
@@ -15763,7 +15851,7 @@
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A670" s="2" t="s">
+      <c r="A670" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B670">
@@ -15783,7 +15871,7 @@
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A671" s="2" t="s">
+      <c r="A671" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B671">
@@ -15803,7 +15891,7 @@
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A672" s="2" t="s">
+      <c r="A672" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B672">
@@ -15823,7 +15911,7 @@
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A673" s="2" t="s">
+      <c r="A673" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B673">
@@ -15843,7 +15931,7 @@
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A674" s="2" t="s">
+      <c r="A674" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B674">
@@ -15863,7 +15951,7 @@
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A675" s="2" t="s">
+      <c r="A675" s="3" t="s">
         <v>530</v>
       </c>
       <c r="B675">
@@ -15879,6 +15967,626 @@
         <v>1</v>
       </c>
       <c r="F675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B676">
+        <v>0</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+      <c r="D676">
+        <v>1</v>
+      </c>
+      <c r="E676">
+        <v>1</v>
+      </c>
+      <c r="F676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B677">
+        <v>0</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677">
+        <v>1</v>
+      </c>
+      <c r="F677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B678">
+        <v>0</v>
+      </c>
+      <c r="C678">
+        <v>0</v>
+      </c>
+      <c r="D678">
+        <v>0</v>
+      </c>
+      <c r="E678">
+        <v>1</v>
+      </c>
+      <c r="F678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B679">
+        <v>0</v>
+      </c>
+      <c r="C679" s="3">
+        <v>1</v>
+      </c>
+      <c r="D679" s="3">
+        <v>1</v>
+      </c>
+      <c r="E679">
+        <v>1</v>
+      </c>
+      <c r="F679" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B680">
+        <v>0</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+      <c r="D680">
+        <v>1</v>
+      </c>
+      <c r="E680">
+        <v>1</v>
+      </c>
+      <c r="F680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B681">
+        <v>0</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+      <c r="E681">
+        <v>1</v>
+      </c>
+      <c r="F681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B682">
+        <v>0</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
+      </c>
+      <c r="E682">
+        <v>1</v>
+      </c>
+      <c r="F682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B683">
+        <v>0</v>
+      </c>
+      <c r="C683">
+        <v>1</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
+      </c>
+      <c r="E683">
+        <v>1</v>
+      </c>
+      <c r="F683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B684">
+        <v>0</v>
+      </c>
+      <c r="C684">
+        <v>1</v>
+      </c>
+      <c r="D684">
+        <v>1</v>
+      </c>
+      <c r="E684">
+        <v>1</v>
+      </c>
+      <c r="F684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B685">
+        <v>0</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+      <c r="D685">
+        <v>1</v>
+      </c>
+      <c r="E685">
+        <v>1</v>
+      </c>
+      <c r="F685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B686">
+        <v>0</v>
+      </c>
+      <c r="C686">
+        <v>1</v>
+      </c>
+      <c r="D686">
+        <v>1</v>
+      </c>
+      <c r="E686">
+        <v>1</v>
+      </c>
+      <c r="F686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B687">
+        <v>0</v>
+      </c>
+      <c r="C687">
+        <v>1</v>
+      </c>
+      <c r="D687">
+        <v>1</v>
+      </c>
+      <c r="E687">
+        <v>1</v>
+      </c>
+      <c r="F687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B688">
+        <v>0</v>
+      </c>
+      <c r="C688">
+        <v>1</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+      <c r="E688">
+        <v>1</v>
+      </c>
+      <c r="F688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B689">
+        <v>0</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+      <c r="D689">
+        <v>1</v>
+      </c>
+      <c r="E689">
+        <v>1</v>
+      </c>
+      <c r="F689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B690">
+        <v>0</v>
+      </c>
+      <c r="C690">
+        <v>1</v>
+      </c>
+      <c r="D690">
+        <v>1</v>
+      </c>
+      <c r="E690">
+        <v>1</v>
+      </c>
+      <c r="F690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B691">
+        <v>0</v>
+      </c>
+      <c r="C691">
+        <v>0</v>
+      </c>
+      <c r="D691">
+        <v>1</v>
+      </c>
+      <c r="E691">
+        <v>1</v>
+      </c>
+      <c r="F691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B692">
+        <v>0</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+      <c r="D692">
+        <v>0</v>
+      </c>
+      <c r="E692">
+        <v>0</v>
+      </c>
+      <c r="F692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B693">
+        <v>0</v>
+      </c>
+      <c r="C693">
+        <v>0</v>
+      </c>
+      <c r="D693">
+        <v>1</v>
+      </c>
+      <c r="E693">
+        <v>1</v>
+      </c>
+      <c r="F693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B694">
+        <v>0</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+      <c r="D694">
+        <v>0</v>
+      </c>
+      <c r="E694">
+        <v>0</v>
+      </c>
+      <c r="F694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B695">
+        <v>0</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+      <c r="D695">
+        <v>1</v>
+      </c>
+      <c r="E695">
+        <v>1</v>
+      </c>
+      <c r="F695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B696">
+        <v>0</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+      <c r="D696">
+        <v>1</v>
+      </c>
+      <c r="E696">
+        <v>1</v>
+      </c>
+      <c r="F696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B697">
+        <v>0</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+      <c r="D697">
+        <v>1</v>
+      </c>
+      <c r="E697">
+        <v>1</v>
+      </c>
+      <c r="F697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B698">
+        <v>0</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+      <c r="D698">
+        <v>1</v>
+      </c>
+      <c r="E698">
+        <v>1</v>
+      </c>
+      <c r="F698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B699">
+        <v>1</v>
+      </c>
+      <c r="C699">
+        <v>1</v>
+      </c>
+      <c r="D699">
+        <v>1</v>
+      </c>
+      <c r="E699">
+        <v>1</v>
+      </c>
+      <c r="F699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="B700">
+        <v>1</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+      <c r="D700">
+        <v>1</v>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+      <c r="F700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
+      </c>
+      <c r="C701">
+        <v>1</v>
+      </c>
+      <c r="D701">
+        <v>1</v>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+      <c r="F701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B702">
+        <v>1</v>
+      </c>
+      <c r="C702">
+        <v>1</v>
+      </c>
+      <c r="D702">
+        <v>1</v>
+      </c>
+      <c r="E702">
+        <v>1</v>
+      </c>
+      <c r="F702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B703">
+        <v>1</v>
+      </c>
+      <c r="C703">
+        <v>1</v>
+      </c>
+      <c r="D703">
+        <v>1</v>
+      </c>
+      <c r="E703">
+        <v>1</v>
+      </c>
+      <c r="F703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B704">
+        <v>1</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
+      </c>
+      <c r="E704">
+        <v>1</v>
+      </c>
+      <c r="F704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B705">
+        <v>1</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+      <c r="D705">
+        <v>1</v>
+      </c>
+      <c r="E705">
+        <v>1</v>
+      </c>
+      <c r="F705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B706">
+        <v>1</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+      <c r="D706">
+        <v>1</v>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+      <c r="F706">
         <v>0</v>
       </c>
     </row>
